--- a/data/apps-master/1991.xlsx
+++ b/data/apps-master/1991.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E006486E-73A2-8E46-BEB2-C5D33B58BD11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12097F9-FBC6-FD47-B0A2-7673D08513C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3598" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -425,11 +425,35 @@
   <si>
     <t>Pat Nevin</t>
   </si>
+  <si>
+    <t>John McGreal</t>
+  </si>
+  <si>
+    <t>1991-10-01</t>
+  </si>
+  <si>
+    <t>Zenith Data Systems Trophy</t>
+  </si>
+  <si>
+    <t>1991-10-22</t>
+  </si>
+  <si>
+    <t>1991-11-26</t>
+  </si>
+  <si>
+    <t>1991-12-10</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -458,8 +482,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="E53:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1920,6 +1946,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F53:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,7 +3100,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3014,7 +3120,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3034,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -3054,7 +3160,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -3074,7 +3180,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -3094,9 +3200,89 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
         <v>127</v>
       </c>
-      <c r="F56">
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60">
         <v>10</v>
       </c>
     </row>
@@ -3107,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4096,7 +4282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -4116,7 +4302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -4136,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -4156,7 +4342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -4170,13 +4356,13 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F52">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -4196,7 +4382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -4216,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -4236,7 +4422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -4253,6 +4439,92 @@
         <v>112</v>
       </c>
       <c r="F56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4535,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5521,6 +5793,9 @@
       <c r="D72" t="s">
         <v>15</v>
       </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -5552,6 +5827,9 @@
       <c r="D74" t="s">
         <v>15</v>
       </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -5566,6 +5844,9 @@
       <c r="D75" t="s">
         <v>15</v>
       </c>
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -5580,6 +5861,9 @@
       <c r="D76" t="s">
         <v>15</v>
       </c>
+      <c r="E76" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -5597,6 +5881,214 @@
       <c r="E77" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="D90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,10 +6097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6606,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -6626,7 +7118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -6640,13 +7132,13 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -6660,13 +7152,16 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -6680,13 +7175,13 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -6706,7 +7201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -6720,13 +7215,13 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -6740,13 +7235,13 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -6760,9 +7255,89 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
         <v>121</v>
       </c>
-      <c r="F56">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
     </row>
@@ -6773,10 +7348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7777,7 +8352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -7797,7 +8372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -7817,7 +8392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -7837,7 +8412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -7857,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -7877,7 +8452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -7897,7 +8472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -7917,7 +8492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -7934,6 +8509,89 @@
         <v>119</v>
       </c>
       <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
     </row>
@@ -7944,10 +8602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="E54:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8957,7 +9615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -8977,7 +9635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -8997,7 +9655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -9017,7 +9675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -9037,7 +9695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -9056,8 +9714,11 @@
       <c r="F53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -9077,7 +9738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9097,7 +9758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -9114,6 +9775,86 @@
         <v>110</v>
       </c>
       <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60">
         <v>4</v>
       </c>
     </row>
@@ -9124,10 +9865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="F1:G34"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10134,7 +10875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -10154,7 +10895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -10174,7 +10915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -10188,13 +10929,13 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -10208,13 +10949,13 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -10228,13 +10969,13 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -10248,13 +10989,13 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -10268,13 +11009,13 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -10288,10 +11029,93 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F56">
         <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -10301,10 +11125,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="E53:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11456,6 +12280,86 @@
         <v>6</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11463,10 +12367,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G1:G21"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12467,7 +13371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -12487,7 +13391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -12507,7 +13411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -12521,13 +13425,13 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -12541,13 +13445,16 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -12567,7 +13474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -12586,8 +13493,11 @@
       <c r="F54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -12601,13 +13511,13 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -12621,9 +13531,89 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
         <v>118</v>
       </c>
-      <c r="F56">
+      <c r="F58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60">
         <v>7</v>
       </c>
     </row>
@@ -12634,10 +13624,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="E53:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13783,6 +14773,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13790,10 +14860,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14854,7 +15924,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -14874,7 +15944,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -14894,7 +15964,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -14914,7 +15984,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -14934,7 +16004,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -14954,9 +16024,89 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
         <v>111</v>
       </c>
-      <c r="F56">
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60">
         <v>9</v>
       </c>
     </row>

--- a/data/apps-master/1991.xlsx
+++ b/data/apps-master/1991.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD45986-1AE8-5645-A6BE-7D282E53E8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41595AF2-99C9-2D44-872E-78CF72C2B9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -449,6 +449,33 @@
   <si>
     <t>Nottingham Forest</t>
   </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>FreeKick</t>
+  </si>
 </sst>
 </file>
 
@@ -2041,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3304,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4549,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4618,6 +4645,21 @@
       <c r="E2" t="s">
         <v>109</v>
       </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4635,6 +4677,15 @@
       <c r="E3" t="s">
         <v>109</v>
       </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4652,6 +4703,21 @@
       <c r="E4" t="s">
         <v>109</v>
       </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4669,6 +4735,12 @@
       <c r="E5" t="s">
         <v>109</v>
       </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4686,6 +4758,24 @@
       <c r="E6" t="s">
         <v>109</v>
       </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4703,6 +4793,15 @@
       <c r="E7" t="s">
         <v>110</v>
       </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4720,6 +4819,12 @@
       <c r="E8" t="s">
         <v>109</v>
       </c>
+      <c r="G8" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4737,6 +4842,21 @@
       <c r="E9" t="s">
         <v>111</v>
       </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4754,6 +4874,21 @@
       <c r="E10" t="s">
         <v>109</v>
       </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4771,6 +4906,24 @@
       <c r="E11" t="s">
         <v>109</v>
       </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4788,6 +4941,12 @@
       <c r="E12" t="s">
         <v>111</v>
       </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4822,6 +4981,21 @@
       <c r="E14" t="s">
         <v>109</v>
       </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4839,6 +5013,18 @@
       <c r="E15" t="s">
         <v>112</v>
       </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4856,8 +5042,20 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -4873,8 +5071,23 @@
       <c r="E17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4890,8 +5103,26 @@
       <c r="E18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -4907,8 +5138,23 @@
       <c r="E19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4924,8 +5170,26 @@
       <c r="E20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4941,8 +5205,23 @@
       <c r="E21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4958,8 +5237,17 @@
       <c r="E22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4975,8 +5263,23 @@
       <c r="E23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4992,8 +5295,26 @@
       <c r="E24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5010,7 +5331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -5026,8 +5347,17 @@
       <c r="E26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -5043,8 +5373,17 @@
       <c r="E27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>132</v>
       </c>
@@ -5060,8 +5399,14 @@
       <c r="E28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -5077,8 +5422,17 @@
       <c r="E29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>132</v>
       </c>
@@ -5094,8 +5448,23 @@
       <c r="E30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -5111,8 +5480,26 @@
       <c r="E31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5128,8 +5515,26 @@
       <c r="E32" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -5145,8 +5550,14 @@
       <c r="E33" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -5162,8 +5573,23 @@
       <c r="E34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5179,8 +5605,20 @@
       <c r="E35" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -5196,8 +5634,17 @@
       <c r="E36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -5213,8 +5660,26 @@
       <c r="E37" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
@@ -5230,8 +5695,20 @@
       <c r="E38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>134</v>
       </c>
@@ -5247,8 +5724,17 @@
       <c r="E39" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
@@ -5264,8 +5750,23 @@
       <c r="E40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -5281,8 +5782,23 @@
       <c r="E41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -5298,8 +5814,26 @@
       <c r="E42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5316,7 +5850,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5332,8 +5866,23 @@
       <c r="E44" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5349,8 +5898,26 @@
       <c r="E45" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5366,8 +5933,14 @@
       <c r="E46" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>141</v>
+      </c>
+      <c r="N46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5383,8 +5956,14 @@
       <c r="E47" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -5400,8 +5979,26 @@
       <c r="E48" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -5417,8 +6014,26 @@
       <c r="E49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>143</v>
+      </c>
+      <c r="N49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5434,8 +6049,23 @@
       <c r="E50" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>135</v>
       </c>
@@ -5451,8 +6081,23 @@
       <c r="E51" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5468,8 +6113,23 @@
       <c r="E52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -5485,8 +6145,26 @@
       <c r="E53" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>139</v>
+      </c>
+      <c r="N53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5502,8 +6180,26 @@
       <c r="E54" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>139</v>
+      </c>
+      <c r="N54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -5519,8 +6215,23 @@
       <c r="E55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -5536,8 +6247,17 @@
       <c r="E56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5553,8 +6273,23 @@
       <c r="E57" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5571,7 +6306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -5587,8 +6322,20 @@
       <c r="E59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -5604,8 +6351,23 @@
       <c r="E60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -5621,8 +6383,23 @@
       <c r="E61" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -5638,8 +6415,23 @@
       <c r="E62" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -5655,8 +6447,14 @@
       <c r="E63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>141</v>
+      </c>
+      <c r="N63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -5672,8 +6470,26 @@
       <c r="E64" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>143</v>
+      </c>
+      <c r="N64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -5690,7 +6506,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -5706,8 +6522,17 @@
       <c r="E66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -5723,8 +6548,23 @@
       <c r="E67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -5741,7 +6581,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -5758,7 +6598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -5775,7 +6615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -5791,8 +6631,23 @@
       <c r="E71" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H71" t="s">
+        <v>144</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -5808,8 +6663,14 @@
       <c r="E72" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>141</v>
+      </c>
+      <c r="N72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5825,8 +6686,23 @@
       <c r="E73" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -5842,8 +6718,17 @@
       <c r="E74" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>146</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -5859,8 +6744,26 @@
       <c r="E75" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>139</v>
+      </c>
+      <c r="N75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -5876,8 +6779,17 @@
       <c r="E76" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -5893,8 +6805,23 @@
       <c r="E77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" t="s">
+        <v>144</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5911,7 +6838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -5928,7 +6855,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -5945,7 +6872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -5961,8 +6888,23 @@
       <c r="E81" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5978,8 +6920,17 @@
       <c r="E82" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5995,8 +6946,26 @@
       <c r="E83" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>139</v>
+      </c>
+      <c r="N83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -6013,7 +6982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -6029,8 +6998,26 @@
       <c r="E85" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" t="s">
+        <v>144</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>139</v>
+      </c>
+      <c r="N85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -6046,8 +7033,23 @@
       <c r="E86" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -6064,7 +7066,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -6080,8 +7082,26 @@
       <c r="E88" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" t="s">
+        <v>144</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>143</v>
+      </c>
+      <c r="N88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -6097,8 +7117,23 @@
       <c r="E89" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="D90" s="2"/>
     </row>
@@ -7369,8 +8404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8626,8 +9661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13663,7 +14698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
